--- a/semestrovka2/testsResult/SearchTest.xlsx
+++ b/semestrovka2/testsResult/SearchTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projectjava\Alg&amp;DataStr\sem2\testsResult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DE677E1-61FB-4429-B70C-C0D2F01CB40D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C7A3C77-6F38-44A4-848A-CB83D46D91DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4344" yWindow="804" windowWidth="17280" windowHeight="9960"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="9960"/>
   </bookViews>
   <sheets>
     <sheet name="SearchTest" sheetId="1" r:id="rId1"/>
@@ -903,7 +903,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -924,26 +924,26 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>76538897</v>
+        <v>134100</v>
       </c>
       <c r="B2">
-        <v>52428700</v>
+        <v>1900</v>
       </c>
       <c r="E2">
         <f>AVERAGE(A2:A51)</f>
-        <v>65820387.740000002</v>
+        <v>17658</v>
       </c>
       <c r="F2">
         <f>AVERAGE(B2:B51)</f>
-        <v>52428700</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>73115008</v>
+        <v>284700</v>
       </c>
       <c r="B3">
-        <v>52428700</v>
+        <v>1900</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -951,394 +951,394 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>74376302</v>
+        <v>43700</v>
       </c>
       <c r="B4">
-        <v>52428700</v>
+        <v>1900</v>
       </c>
       <c r="E4" s="1">
-        <f>E2/10000</f>
-        <v>6582.0387740000006</v>
+        <f>E2/100</f>
+        <v>176.58</v>
       </c>
       <c r="F4" s="1">
-        <f>F2/10000</f>
-        <v>5242.87</v>
+        <f>F2/100</f>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>73267396</v>
+        <v>16500</v>
       </c>
       <c r="B5">
-        <v>52428700</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>74822297</v>
+        <v>14200</v>
       </c>
       <c r="B6">
-        <v>52428700</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>76239501</v>
+        <v>8300</v>
       </c>
       <c r="B7">
-        <v>52428700</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>73000600</v>
+        <v>8800</v>
       </c>
       <c r="B8">
-        <v>52428700</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>74250801</v>
+        <v>7700</v>
       </c>
       <c r="B9">
-        <v>52428700</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>63188400</v>
+        <v>9300</v>
       </c>
       <c r="B10">
-        <v>52428700</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>63129797</v>
+        <v>9700</v>
       </c>
       <c r="B11">
-        <v>52428700</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>60530700</v>
+        <v>9500</v>
       </c>
       <c r="B12">
-        <v>52428700</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>72423000</v>
+        <v>9500</v>
       </c>
       <c r="B13">
-        <v>52428700</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>73241300</v>
+        <v>9800</v>
       </c>
       <c r="B14">
-        <v>52428700</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>70287299</v>
+        <v>6400</v>
       </c>
       <c r="B15">
-        <v>52428700</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>71459098</v>
+        <v>15300</v>
       </c>
       <c r="B16">
-        <v>52428700</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>71155396</v>
+        <v>7900</v>
       </c>
       <c r="B17">
-        <v>52428700</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>66543196</v>
+        <v>7400</v>
       </c>
       <c r="B18">
-        <v>52428700</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>62214199</v>
+        <v>6700</v>
       </c>
       <c r="B19">
-        <v>52428700</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>67702400</v>
+        <v>10100</v>
       </c>
       <c r="B20">
-        <v>52428700</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>72185399</v>
+        <v>7000</v>
       </c>
       <c r="B21">
-        <v>52428700</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>71494296</v>
+        <v>5600</v>
       </c>
       <c r="B22">
-        <v>52428700</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>73189902</v>
+        <v>6500</v>
       </c>
       <c r="B23">
-        <v>52428700</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>62220302</v>
+        <v>10300</v>
       </c>
       <c r="B24">
-        <v>52428700</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>61344001</v>
+        <v>9400</v>
       </c>
       <c r="B25">
-        <v>52428700</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>64535102</v>
+        <v>10900</v>
       </c>
       <c r="B26">
-        <v>52428700</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>63098502</v>
+        <v>8100</v>
       </c>
       <c r="B27">
-        <v>52428700</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>65736098</v>
+        <v>8900</v>
       </c>
       <c r="B28">
-        <v>52428700</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>60593099</v>
+        <v>9700</v>
       </c>
       <c r="B29">
-        <v>52428700</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>60833499</v>
+        <v>7500</v>
       </c>
       <c r="B30">
-        <v>52428700</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>60982000</v>
+        <v>6000</v>
       </c>
       <c r="B31">
-        <v>52428700</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>68713499</v>
+        <v>10400</v>
       </c>
       <c r="B32">
-        <v>52428700</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>63443298</v>
+        <v>7500</v>
       </c>
       <c r="B33">
-        <v>52428700</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>65044401</v>
+        <v>11500</v>
       </c>
       <c r="B34">
-        <v>52428700</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>59683400</v>
+        <v>6700</v>
       </c>
       <c r="B35">
-        <v>52428700</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>59705200</v>
+        <v>6900</v>
       </c>
       <c r="B36">
-        <v>52428700</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>62500501</v>
+        <v>11100</v>
       </c>
       <c r="B37">
-        <v>52428700</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>59923601</v>
+        <v>10200</v>
       </c>
       <c r="B38">
-        <v>52428700</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>58970899</v>
+        <v>9700</v>
       </c>
       <c r="B39">
-        <v>52428700</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>62547001</v>
+        <v>12000</v>
       </c>
       <c r="B40">
-        <v>52428700</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>61286100</v>
+        <v>6400</v>
       </c>
       <c r="B41">
-        <v>52428700</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>60279000</v>
+        <v>6100</v>
       </c>
       <c r="B42">
-        <v>52428700</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>64468598</v>
+        <v>7100</v>
       </c>
       <c r="B43">
-        <v>52428700</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>61699998</v>
+        <v>8500</v>
       </c>
       <c r="B44">
-        <v>52428700</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>60972101</v>
+        <v>8800</v>
       </c>
       <c r="B45">
-        <v>52428700</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>61819499</v>
+        <v>8400</v>
       </c>
       <c r="B46">
-        <v>52428700</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>60268803</v>
+        <v>8200</v>
       </c>
       <c r="B47">
-        <v>52428700</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>66312899</v>
+        <v>9700</v>
       </c>
       <c r="B48">
-        <v>52428700</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>59963201</v>
+        <v>8900</v>
       </c>
       <c r="B49">
-        <v>52428700</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>59757102</v>
+        <v>8400</v>
       </c>
       <c r="B50">
-        <v>52428700</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>59962499</v>
+        <v>6900</v>
       </c>
       <c r="B51">
-        <v>52428700</v>
+        <v>1900</v>
       </c>
     </row>
   </sheetData>
